--- a/Chandrashekhar/Chandrashekhar.xlsx
+++ b/Chandrashekhar/Chandrashekhar.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="124">
   <si>
     <t>Version</t>
   </si>
@@ -136,42 +136,45 @@
     <t>iCook(MPP)</t>
   </si>
   <si>
+    <t>C3 Automation</t>
+  </si>
+  <si>
+    <t>Dummy5</t>
+  </si>
+  <si>
+    <t>Dummy4 descripation</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Chandrashekhar MH</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>S7-SW-24</t>
+  </si>
+  <si>
+    <t>Chandrayan 3</t>
+  </si>
+  <si>
+    <t>Srilakshminarayanan Gokul(SW)</t>
+  </si>
+  <si>
+    <t>Power calibration Analysis and Follow up tasks</t>
+  </si>
+  <si>
+    <t>Mpp Approval</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
     <t>iCookMPP</t>
   </si>
   <si>
-    <t>Dummy4</t>
-  </si>
-  <si>
-    <t>Dummy4 descripation</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Chandrashekhar MH</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>S7-SW-24</t>
-  </si>
-  <si>
-    <t>Chandrayan 3</t>
-  </si>
-  <si>
-    <t>Srilakshminarayanan Gokul(SW)</t>
-  </si>
-  <si>
-    <t>Power calibration Analysis and Follow up tasks</t>
-  </si>
-  <si>
-    <t>Mpp Approval</t>
-  </si>
-  <si>
-    <t>bbb</t>
-  </si>
-  <si>
     <t>Ashik S Manjunath</t>
   </si>
   <si>
@@ -197,9 +200,6 @@
   </si>
   <si>
     <t>Mahesh N</t>
-  </si>
-  <si>
-    <t>C3 Automation</t>
   </si>
   <si>
     <t>669359000013720358,669359000013720262</t>
@@ -1664,8 +1664,8 @@
   <sheetPr/>
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1757,6 +1757,9 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
       <c r="D2" t="s">
@@ -1775,10 +1778,10 @@
         <v>20</v>
       </c>
       <c r="J2" s="15">
-        <v>45422</v>
+        <v>45483</v>
       </c>
       <c r="K2" s="15">
-        <v>45514</v>
+        <v>45575</v>
       </c>
       <c r="L2" t="s">
         <v>31</v>
@@ -1811,19 +1814,19 @@
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
       <c r="U3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="8:25">
@@ -1834,16 +1837,16 @@
         <v>24</v>
       </c>
       <c r="V4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="8:25">
@@ -1851,16 +1854,16 @@
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
       <c r="U5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X5" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="Y5" s="18" t="s">
         <v>48</v>

--- a/Chandrashekhar/Chandrashekhar.xlsx
+++ b/Chandrashekhar/Chandrashekhar.xlsx
@@ -139,7 +139,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>Dummy5</t>
+    <t>Dummy555</t>
   </si>
   <si>
     <t>Dummy4 descripation</t>
@@ -1665,7 +1665,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar/Chandrashekhar.xlsx
+++ b/Chandrashekhar/Chandrashekhar.xlsx
@@ -139,7 +139,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>Dummy555</t>
+    <t>Dummy55</t>
   </si>
   <si>
     <t>Dummy4 descripation</t>
@@ -1665,7 +1665,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar/Chandrashekhar.xlsx
+++ b/Chandrashekhar/Chandrashekhar.xlsx
@@ -139,7 +139,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>Dummy55</t>
+    <t>Dummy5552</t>
   </si>
   <si>
     <t>Dummy4 descripation</t>
@@ -1665,7 +1665,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar/Chandrashekhar.xlsx
+++ b/Chandrashekhar/Chandrashekhar.xlsx
@@ -139,7 +139,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>Dummy5552</t>
+    <t>Dummy5552222</t>
   </si>
   <si>
     <t>Dummy4 descripation</t>
@@ -1665,7 +1665,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar/Chandrashekhar.xlsx
+++ b/Chandrashekhar/Chandrashekhar.xlsx
@@ -139,7 +139,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>Dummy5552222</t>
+    <t>Dummy55</t>
   </si>
   <si>
     <t>Dummy4 descripation</t>
@@ -1665,7 +1665,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar/Chandrashekhar.xlsx
+++ b/Chandrashekhar/Chandrashekhar.xlsx
@@ -139,7 +139,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>Dummy55</t>
+    <t>Dummy5522</t>
   </si>
   <si>
     <t>Dummy4 descripation</t>
@@ -1665,7 +1665,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar/Chandrashekhar.xlsx
+++ b/Chandrashekhar/Chandrashekhar.xlsx
@@ -139,7 +139,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>Dummy5522</t>
+    <t>Dummy55221</t>
   </si>
   <si>
     <t>Dummy4 descripation</t>
@@ -1665,7 +1665,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar/Chandrashekhar.xlsx
+++ b/Chandrashekhar/Chandrashekhar.xlsx
@@ -142,7 +142,7 @@
     <t>Dummy55221</t>
   </si>
   <si>
-    <t>Dummy4 descripation</t>
+    <t>Dummy45 descripation</t>
   </si>
   <si>
     <t>Task</t>
@@ -1665,7 +1665,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar/Chandrashekhar.xlsx
+++ b/Chandrashekhar/Chandrashekhar.xlsx
@@ -139,7 +139,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>Dummy55221</t>
+    <t>Dummy5522123</t>
   </si>
   <si>
     <t>Dummy45 descripation</t>
@@ -1665,7 +1665,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar/Chandrashekhar.xlsx
+++ b/Chandrashekhar/Chandrashekhar.xlsx
@@ -139,7 +139,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>Dummy5522123</t>
+    <t>Dummy5542</t>
   </si>
   <si>
     <t>Dummy45 descripation</t>
@@ -1665,7 +1665,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar/Chandrashekhar.xlsx
+++ b/Chandrashekhar/Chandrashekhar.xlsx
@@ -139,7 +139,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>Dummy5542</t>
+    <t>Dummy55425</t>
   </si>
   <si>
     <t>Dummy45 descripation</t>

--- a/Chandrashekhar/Chandrashekhar.xlsx
+++ b/Chandrashekhar/Chandrashekhar.xlsx
@@ -139,7 +139,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>Dummy55425</t>
+    <t>Dummy554256</t>
   </si>
   <si>
     <t>Dummy45 descripation</t>
@@ -1665,7 +1665,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar/Chandrashekhar.xlsx
+++ b/Chandrashekhar/Chandrashekhar.xlsx
@@ -139,7 +139,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>Dummy554256</t>
+    <t>Dummy5432</t>
   </si>
   <si>
     <t>Dummy45 descripation</t>
@@ -1665,7 +1665,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar/Chandrashekhar.xlsx
+++ b/Chandrashekhar/Chandrashekhar.xlsx
@@ -139,7 +139,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>Dummy5432</t>
+    <t>Dummy54321</t>
   </si>
   <si>
     <t>Dummy45 descripation</t>
@@ -1665,7 +1665,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar/Chandrashekhar.xlsx
+++ b/Chandrashekhar/Chandrashekhar.xlsx
@@ -139,7 +139,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>Dummy54321</t>
+    <t>Dummy5432125</t>
   </si>
   <si>
     <t>Dummy45 descripation</t>

--- a/Chandrashekhar/Chandrashekhar.xlsx
+++ b/Chandrashekhar/Chandrashekhar.xlsx
@@ -139,7 +139,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>Dummy5432125</t>
+    <t>Dummy543</t>
   </si>
   <si>
     <t>Dummy45 descripation</t>
@@ -1665,7 +1665,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar/Chandrashekhar.xlsx
+++ b/Chandrashekhar/Chandrashekhar.xlsx
@@ -139,7 +139,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>Dummy543</t>
+    <t>Dummy54320</t>
   </si>
   <si>
     <t>Dummy45 descripation</t>
@@ -1665,7 +1665,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar/Chandrashekhar.xlsx
+++ b/Chandrashekhar/Chandrashekhar.xlsx
@@ -139,7 +139,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>Dummy54320</t>
+    <t>Dummy543202</t>
   </si>
   <si>
     <t>Dummy45 descripation</t>
@@ -1665,7 +1665,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar/Chandrashekhar.xlsx
+++ b/Chandrashekhar/Chandrashekhar.xlsx
@@ -139,7 +139,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>Dummy543202</t>
+    <t>Dummy5432</t>
   </si>
   <si>
     <t>Dummy45 descripation</t>
@@ -1665,7 +1665,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar/Chandrashekhar.xlsx
+++ b/Chandrashekhar/Chandrashekhar.xlsx
@@ -139,7 +139,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>Dummy5432</t>
+    <t>Dummy5432454</t>
   </si>
   <si>
     <t>Dummy45 descripation</t>
@@ -1665,7 +1665,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
